--- a/data-excel/src/main/resources/范例.xlsx
+++ b/data-excel/src/main/resources/范例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_itemshop_vip" sheetId="4" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>vip礼包</t>
   </si>
@@ -207,16 +207,13 @@
     <t>int</t>
   </si>
   <si>
-    <t>int[][]</t>
-  </si>
-  <si>
-    <t>string_20000</t>
+    <t>wxdgaming.spring.boot.core.lang.ConfigString</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.boot.core.timer.CronExpress</t>
+    <t>wxdgaming.spring.boot.core.timer.CronExpress</t>
   </si>
   <si>
     <t>bool</t>
@@ -295,7 +292,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +311,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -817,133 +820,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -959,7 +962,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,7 +1322,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1426,51 +1429,51 @@
         <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1478,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8" t="b">
         <v>1</v>
@@ -1499,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1507,19 +1510,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8" t="b">
         <v>0</v>
@@ -1528,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1536,19 +1539,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8" t="b">
         <v>1</v>
@@ -1557,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
